--- a/data/trans_orig/IP22D4_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP22D4_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{905B606C-9247-4EFD-9187-C7F19110CFDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3FDA5BF-714A-477D-B0EA-14AB4017F2A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6731299C-78CA-4A25-9431-BBF155F18C74}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7718F71B-08DE-4D81-9E6E-12BF1128E5EB}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="78">
   <si>
     <t>Menores que, necesitándolo, no pudo recibir atención médica mental (psicólogo) en 2023 (Tasa respuesta: 6,61%)</t>
   </si>
@@ -113,145 +113,151 @@
     <t>97,44%</t>
   </si>
   <si>
-    <t>90,72%</t>
+    <t>91,34%</t>
   </si>
   <si>
     <t>97,21%</t>
   </si>
   <si>
-    <t>86,66%</t>
+    <t>87,54%</t>
   </si>
   <si>
     <t>97,34%</t>
   </si>
   <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
   </si>
   <si>
     <t>1,11%</t>
   </si>
   <si>
-    <t>6,32%</t>
+    <t>7,28%</t>
   </si>
   <si>
     <t>2,79%</t>
   </si>
   <si>
-    <t>13,34%</t>
+    <t>12,46%</t>
   </si>
   <si>
     <t>1,88%</t>
   </si>
   <si>
-    <t>6,4%</t>
+    <t>7,21%</t>
   </si>
   <si>
     <t>1,45%</t>
   </si>
   <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>70,14%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
     <t>7,06%</t>
   </si>
   <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
     <t>96,53%</t>
   </si>
   <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
   </si>
   <si>
     <t>96,84%</t>
   </si>
   <si>
-    <t>89,66%</t>
+    <t>88,64%</t>
   </si>
   <si>
     <t>96,68%</t>
   </si>
   <si>
-    <t>99,04%</t>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
   </si>
   <si>
     <t>2,45%</t>
   </si>
   <si>
-    <t>8,96%</t>
+    <t>10,21%</t>
   </si>
   <si>
     <t>3,16%</t>
   </si>
   <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
   </si>
   <si>
     <t>1,02%</t>
   </si>
   <si>
-    <t>5,74%</t>
+    <t>5,41%</t>
   </si>
   <si>
     <t>2,99%</t>
@@ -260,7 +266,7 @@
     <t>0,54%</t>
   </si>
   <si>
-    <t>3,02%</t>
+    <t>3,12%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -675,7 +681,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6B1AAC5-1946-4997-8BD2-F2B0F10B4F78}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3E07E6C-655C-4661-80AD-124B02E8605A}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1349,7 +1355,7 @@
         <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1417,13 +1423,13 @@
         <v>47703</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H16" s="7">
         <v>61</v>
@@ -1432,10 +1438,10 @@
         <v>42957</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>11</v>
@@ -1447,13 +1453,13 @@
         <v>90661</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1468,13 +1474,13 @@
         <v>1209</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -1483,13 +1489,13 @@
         <v>1403</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -1501,10 +1507,10 @@
         <v>33</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1519,13 +1525,13 @@
         <v>504</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -1540,7 +1546,7 @@
         <v>18</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M18" s="7">
         <v>1</v>
@@ -1549,13 +1555,13 @@
         <v>504</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1611,7 +1617,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP22D4_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP22D4_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3FDA5BF-714A-477D-B0EA-14AB4017F2A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF224CC1-0526-4F93-AC95-50FCC5A22780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7718F71B-08DE-4D81-9E6E-12BF1128E5EB}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{D72F7675-C10C-4C91-A43E-07BDC968E198}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="79">
   <si>
     <t>Menores que, necesitándolo, no pudo recibir atención médica mental (psicólogo) en 2023 (Tasa respuesta: 6,61%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -74,15 +74,15 @@
     <t>100,0%</t>
   </si>
   <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>73,58%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
     <t>84,31%</t>
   </si>
   <si>
@@ -95,12 +95,12 @@
     <t>0%</t>
   </si>
   <si>
+    <t>30,57%</t>
+  </si>
+  <si>
     <t>26,42%</t>
   </si>
   <si>
-    <t>30,57%</t>
-  </si>
-  <si>
     <t>15,69%</t>
   </si>
   <si>
@@ -110,163 +110,166 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>66,81%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
   </si>
   <si>
     <t>2,79%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -681,7 +684,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3E07E6C-655C-4661-80AD-124B02E8605A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93E80A63-1C81-415D-B2FB-9EA07C3A164A}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -799,10 +802,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>5129</v>
+        <v>8192</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -814,10 +817,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I4" s="7">
-        <v>4739</v>
+        <v>5658</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
@@ -832,7 +835,7 @@
         <v>11</v>
       </c>
       <c r="N4" s="7">
-        <v>9868</v>
+        <v>13850</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
@@ -952,25 +955,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>5</v>
+      </c>
+      <c r="D7" s="7">
+        <v>8192</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
         <v>6</v>
       </c>
-      <c r="D7" s="7">
-        <v>5129</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="7">
-        <v>5</v>
-      </c>
       <c r="I7" s="7">
-        <v>4739</v>
+        <v>5658</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -985,7 +988,7 @@
         <v>11</v>
       </c>
       <c r="N7" s="7">
-        <v>9868</v>
+        <v>13850</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -1005,10 +1008,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" s="7">
-        <v>33977</v>
+        <v>29373</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>24</v>
@@ -1020,10 +1023,10 @@
         <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I8" s="7">
-        <v>28889</v>
+        <v>35945</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>26</v>
@@ -1038,7 +1041,7 @@
         <v>87</v>
       </c>
       <c r="N8" s="7">
-        <v>62866</v>
+        <v>65318</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>28</v>
@@ -1059,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="7">
-        <v>388</v>
+        <v>838</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>31</v>
@@ -1074,7 +1077,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="7">
-        <v>828</v>
+        <v>396</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>33</v>
@@ -1089,7 +1092,7 @@
         <v>2</v>
       </c>
       <c r="N9" s="7">
-        <v>1215</v>
+        <v>1234</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>35</v>
@@ -1107,31 +1110,31 @@
         <v>22</v>
       </c>
       <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="7">
         <v>1</v>
       </c>
-      <c r="D10" s="7">
-        <v>504</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="I10" s="7">
+        <v>519</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>39</v>
@@ -1140,7 +1143,7 @@
         <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>40</v>
@@ -1158,25 +1161,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>44</v>
+      </c>
+      <c r="D11" s="7">
+        <v>30211</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="7">
         <v>46</v>
       </c>
-      <c r="D11" s="7">
-        <v>34869</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="7">
-        <v>44</v>
-      </c>
       <c r="I11" s="7">
-        <v>29717</v>
+        <v>36860</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>13</v>
@@ -1191,7 +1194,7 @@
         <v>90</v>
       </c>
       <c r="N11" s="7">
-        <v>64586</v>
+        <v>67071</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>13</v>
@@ -1211,10 +1214,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D12" s="7">
-        <v>8597</v>
+        <v>9177</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>43</v>
@@ -1226,10 +1229,10 @@
         <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I12" s="7">
-        <v>9330</v>
+        <v>9904</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>45</v>
@@ -1244,7 +1247,7 @@
         <v>24</v>
       </c>
       <c r="N12" s="7">
-        <v>17926</v>
+        <v>19081</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>47</v>
@@ -1265,7 +1268,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>821</v>
+        <v>586</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>49</v>
@@ -1280,7 +1283,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>575</v>
+        <v>850</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>51</v>
@@ -1295,7 +1298,7 @@
         <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>1397</v>
+        <v>1436</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>53</v>
@@ -1364,25 +1367,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>14</v>
+      </c>
+      <c r="D15" s="7">
+        <v>9763</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="7">
         <v>12</v>
       </c>
-      <c r="D15" s="7">
-        <v>9418</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
-        <v>14</v>
-      </c>
       <c r="I15" s="7">
-        <v>9905</v>
+        <v>10754</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -1397,7 +1400,7 @@
         <v>26</v>
       </c>
       <c r="N15" s="7">
-        <v>19323</v>
+        <v>20517</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -1420,7 +1423,7 @@
         <v>61</v>
       </c>
       <c r="D16" s="7">
-        <v>47703</v>
+        <v>46742</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>58</v>
@@ -1429,28 +1432,28 @@
         <v>59</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="H16" s="7">
         <v>61</v>
       </c>
       <c r="I16" s="7">
-        <v>42957</v>
+        <v>51507</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="M16" s="7">
         <v>122</v>
       </c>
       <c r="N16" s="7">
-        <v>90661</v>
+        <v>98249</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>63</v>
@@ -1471,7 +1474,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>1209</v>
+        <v>1424</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>66</v>
@@ -1486,7 +1489,7 @@
         <v>2</v>
       </c>
       <c r="I17" s="7">
-        <v>1403</v>
+        <v>1246</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>68</v>
@@ -1501,16 +1504,16 @@
         <v>4</v>
       </c>
       <c r="N17" s="7">
-        <v>2612</v>
+        <v>2670</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1519,49 +1522,49 @@
         <v>22</v>
       </c>
       <c r="C18" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" s="7">
-        <v>504</v>
+        <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>73</v>
       </c>
       <c r="H18" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="7">
-        <v>0</v>
+        <v>519</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M18" s="7">
         <v>1</v>
       </c>
       <c r="N18" s="7">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1570,25 +1573,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>63</v>
+      </c>
+      <c r="D19" s="7">
+        <v>48166</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="7">
         <v>64</v>
       </c>
-      <c r="D19" s="7">
-        <v>49417</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="7">
-        <v>63</v>
-      </c>
       <c r="I19" s="7">
-        <v>44360</v>
+        <v>53272</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>13</v>
@@ -1603,7 +1606,7 @@
         <v>127</v>
       </c>
       <c r="N19" s="7">
-        <v>93777</v>
+        <v>101438</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>13</v>
@@ -1617,7 +1620,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
